--- a/data/trans_orig/Q5419_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5419_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>12841</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7967</v>
+        <v>8049</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19549</v>
+        <v>20273</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.07863020991486452</v>
+        <v>0.07863020991486454</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04878365613854755</v>
+        <v>0.04928844854879221</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1197016704467745</v>
+        <v>0.1241332650975299</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>77</v>
@@ -762,19 +762,19 @@
         <v>31119</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>25057</v>
+        <v>25003</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39087</v>
+        <v>38790</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1639551048523986</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1320179432602836</v>
+        <v>0.1317314934807312</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2059354778426037</v>
+        <v>0.2043707161788221</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>100</v>
@@ -783,19 +783,19 @@
         <v>43961</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>34950</v>
+        <v>35390</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>52637</v>
+        <v>53211</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1244929083471537</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09897538890296781</v>
+        <v>0.1002225213522977</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1490631715513738</v>
+        <v>0.1506890817464626</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>4788</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1880</v>
+        <v>2023</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9588</v>
+        <v>9787</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02931665780317926</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01151009854352529</v>
+        <v>0.0123846902255141</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05870728368429431</v>
+        <v>0.05992582231051238</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>18</v>
@@ -833,19 +833,19 @@
         <v>7872</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4801</v>
+        <v>4506</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12756</v>
+        <v>12590</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04147678305714991</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02529652377123648</v>
+        <v>0.02373904292475877</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06720604257243272</v>
+        <v>0.06633216480064444</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>25</v>
@@ -854,19 +854,19 @@
         <v>12660</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>8109</v>
+        <v>8489</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>18171</v>
+        <v>19189</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03585280599099721</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02296435510368707</v>
+        <v>0.02404007303332461</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0514575628659469</v>
+        <v>0.0543426248921112</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>8110</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4168</v>
+        <v>4489</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14527</v>
+        <v>14037</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04966155227490389</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02552021912164953</v>
+        <v>0.02748605550095555</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08894904670892578</v>
+        <v>0.08595182026004557</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>32</v>
@@ -904,19 +904,19 @@
         <v>15544</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10707</v>
+        <v>10626</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>21176</v>
+        <v>20928</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.08189538375212155</v>
+        <v>0.08189538375212152</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05641172885639366</v>
+        <v>0.05598312514575034</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1115667196221102</v>
+        <v>0.110262403509094</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>43</v>
@@ -925,19 +925,19 @@
         <v>23654</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>16691</v>
+        <v>17294</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>30943</v>
+        <v>31932</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.06698745104617272</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04726890465271251</v>
+        <v>0.04897464682630209</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08762826639613466</v>
+        <v>0.09042856194957603</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>9508</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5781</v>
+        <v>5664</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15020</v>
+        <v>14595</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.05822075725527692</v>
+        <v>0.05822075725527694</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0353952776155926</v>
+        <v>0.03467924805984746</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09196973562382144</v>
+        <v>0.08936620019724627</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>46</v>
@@ -975,19 +975,19 @@
         <v>20285</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15133</v>
+        <v>14949</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26743</v>
+        <v>26181</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1068716285069556</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0797311952332181</v>
+        <v>0.07875997701638009</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1408966092461542</v>
+        <v>0.1379399659512512</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>63</v>
@@ -996,19 +996,19 @@
         <v>29793</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>22871</v>
+        <v>23488</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>38095</v>
+        <v>37810</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.0843709240772503</v>
+        <v>0.08437092407725032</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06476968264326019</v>
+        <v>0.0665148425211525</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1078814785636701</v>
+        <v>0.1070759063726811</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>128066</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>118573</v>
+        <v>119102</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>136034</v>
+        <v>135735</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7841708227517753</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7260447005797389</v>
+        <v>0.729281837522932</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8329585317944511</v>
+        <v>0.8311283166785999</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>271</v>
@@ -1046,19 +1046,19 @@
         <v>114983</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>105628</v>
+        <v>105614</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>123753</v>
+        <v>124112</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.6058010998313745</v>
+        <v>0.6058010998313743</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5565134827252162</v>
+        <v>0.5564409852762725</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.652005193332389</v>
+        <v>0.6538964512970377</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>466</v>
@@ -1067,19 +1067,19 @@
         <v>243049</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>229348</v>
+        <v>230948</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>255349</v>
+        <v>257109</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.688295910538426</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6494964482335054</v>
+        <v>0.6540277936913748</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7231275585525174</v>
+        <v>0.7281117314249892</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>11236</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7038</v>
+        <v>7320</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18194</v>
+        <v>18178</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06305095852347173</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03949643580087521</v>
+        <v>0.04107532484290831</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1020953725025115</v>
+        <v>0.102005176605964</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>51</v>
@@ -1192,19 +1192,19 @@
         <v>25344</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19621</v>
+        <v>19297</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>33214</v>
+        <v>33565</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.105116683812374</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08137788609277999</v>
+        <v>0.08003526553696012</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1377558186408183</v>
+        <v>0.1392145923245474</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>71</v>
@@ -1213,19 +1213,19 @@
         <v>36580</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>28586</v>
+        <v>27690</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>45762</v>
+        <v>45875</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08723898384441321</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06817350061122754</v>
+        <v>0.06603734565159147</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1091372927886366</v>
+        <v>0.109406855850927</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>2423</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>785</v>
+        <v>733</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6904</v>
+        <v>5746</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01359879358640732</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.004404317259179643</v>
+        <v>0.004113703931428712</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03874076451925007</v>
+        <v>0.03224323108560189</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>15</v>
@@ -1263,19 +1263,19 @@
         <v>8715</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5240</v>
+        <v>4821</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>13983</v>
+        <v>13640</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03614791853024354</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02173449517170625</v>
+        <v>0.01999601475708496</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0579958095220237</v>
+        <v>0.05657101133444949</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>19</v>
@@ -1284,19 +1284,19 @@
         <v>11139</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>6878</v>
+        <v>6360</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>17553</v>
+        <v>16911</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02656466547761362</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01640425089889649</v>
+        <v>0.01516745082089162</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04186172329947312</v>
+        <v>0.04033076746779057</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>7736</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4080</v>
+        <v>4084</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13888</v>
+        <v>13432</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04341259823666529</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02289761475725726</v>
+        <v>0.02291844142917913</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07793121606398375</v>
+        <v>0.07537421623031229</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>29</v>
@@ -1334,19 +1334,19 @@
         <v>16275</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>11382</v>
+        <v>11346</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>23273</v>
+        <v>23212</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06750165705462774</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04720866189654908</v>
+        <v>0.04705935453393591</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09652823572392633</v>
+        <v>0.09627438599247962</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>40</v>
@@ -1355,19 +1355,19 @@
         <v>24011</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>17908</v>
+        <v>17627</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>32094</v>
+        <v>32583</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.05726394064535646</v>
+        <v>0.05726394064535645</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04270867147234482</v>
+        <v>0.0420392816972982</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07654046227574167</v>
+        <v>0.07770715009774351</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>9908</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5913</v>
+        <v>5556</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16297</v>
+        <v>15617</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.05560093631435631</v>
+        <v>0.0556009363143563</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03318145552326496</v>
+        <v>0.03117805292260281</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09145377144329081</v>
+        <v>0.08763756236992419</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>42</v>
@@ -1405,19 +1405,19 @@
         <v>22982</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17246</v>
+        <v>17173</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>29942</v>
+        <v>30467</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09532055104657911</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07152960883167246</v>
+        <v>0.07122808635116903</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1241853723378079</v>
+        <v>0.1263660176112074</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>57</v>
@@ -1426,19 +1426,19 @@
         <v>32890</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>25299</v>
+        <v>25087</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>41938</v>
+        <v>42785</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07843993505460878</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06033398160548405</v>
+        <v>0.05983006470989886</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1000177878883305</v>
+        <v>0.1020379295514887</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>146900</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>138490</v>
+        <v>137981</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>154570</v>
+        <v>154752</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8243367133390993</v>
+        <v>0.8243367133390995</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.777142300331086</v>
+        <v>0.7742892010854959</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8673780810284197</v>
+        <v>0.8683997599405325</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>310</v>
@@ -1476,19 +1476,19 @@
         <v>167788</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>157559</v>
+        <v>157295</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>177188</v>
+        <v>177968</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6959131895561758</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6534869387615306</v>
+        <v>0.6523922413024811</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.734900859022298</v>
+        <v>0.738136134863411</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>514</v>
@@ -1497,19 +1497,19 @@
         <v>314687</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>300481</v>
+        <v>301030</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>328020</v>
+        <v>329111</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7504924749780081</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7166108692194743</v>
+        <v>0.7179218164980321</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7822899719665715</v>
+        <v>0.7848912943892205</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>6475</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2627</v>
+        <v>2659</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13144</v>
+        <v>12931</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.04076332062587665</v>
+        <v>0.04076332062587666</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01653867017222916</v>
+        <v>0.01674018965518525</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08274223793301967</v>
+        <v>0.08139865399530211</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>16</v>
@@ -1622,19 +1622,19 @@
         <v>11065</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6245</v>
+        <v>6455</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17317</v>
+        <v>17259</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.06326097209086123</v>
+        <v>0.06326097209086125</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0357035617598143</v>
+        <v>0.03690301903173977</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09900296694439902</v>
+        <v>0.09867336755590959</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>23</v>
@@ -1643,19 +1643,19 @@
         <v>17540</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11508</v>
+        <v>11466</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>27773</v>
+        <v>27014</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.05255320777200248</v>
+        <v>0.05255320777200247</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03447901538899769</v>
+        <v>0.03435500502448777</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08321176783992901</v>
+        <v>0.08093801133151585</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>2519</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6757</v>
+        <v>6892</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01585550960355508</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.004140217924194832</v>
+        <v>0.004119580618624885</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04253504290405603</v>
+        <v>0.04338352698904174</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -1693,19 +1693,19 @@
         <v>5068</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2324</v>
+        <v>2512</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9781</v>
+        <v>9646</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.02897284530937499</v>
+        <v>0.02897284530937501</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0132849679692171</v>
+        <v>0.01436154490443793</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05592169965395463</v>
+        <v>0.05514900294162716</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>11</v>
@@ -1714,19 +1714,19 @@
         <v>7586</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4025</v>
+        <v>3947</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>13697</v>
+        <v>13416</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02272964523811961</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01206063079248301</v>
+        <v>0.01182563001685002</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04103913235202291</v>
+        <v>0.0401945815107508</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>3644</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>919</v>
+        <v>926</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8277</v>
+        <v>8329</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02293910024799321</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.00578270689831969</v>
+        <v>0.005829481607724376</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05210330194428688</v>
+        <v>0.05243311905392364</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>36</v>
@@ -1764,19 +1764,19 @@
         <v>22426</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>16544</v>
+        <v>16125</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>29919</v>
+        <v>30186</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1282127390731318</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09458842567355055</v>
+        <v>0.09218820887562935</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1710539685702227</v>
+        <v>0.1725829171514723</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>40</v>
@@ -1785,19 +1785,19 @@
         <v>26070</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>19003</v>
+        <v>18714</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>34172</v>
+        <v>35419</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.07810771743197546</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05693414562752847</v>
+        <v>0.05607042694358496</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1023827408592612</v>
+        <v>0.1061204268688016</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>3182</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>869</v>
+        <v>850</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7913</v>
+        <v>7264</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02003120954437508</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005470388603940047</v>
+        <v>0.005349789984432508</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04981051585134842</v>
+        <v>0.04572558162030101</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>21</v>
@@ -1835,19 +1835,19 @@
         <v>11824</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7550</v>
+        <v>7689</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17888</v>
+        <v>17519</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.06759988043669068</v>
+        <v>0.0675998804366907</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04316755322856378</v>
+        <v>0.04395848082712019</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1022706562258982</v>
+        <v>0.1001631593768506</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>25</v>
@@ -1856,19 +1856,19 @@
         <v>15006</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>9439</v>
+        <v>10052</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>21865</v>
+        <v>21421</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04495955650470013</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02828067241122146</v>
+        <v>0.03011778359518546</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06550934604660985</v>
+        <v>0.06418061612305383</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>143035</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>135278</v>
+        <v>135047</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>149187</v>
+        <v>148980</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9004108599781999</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8515840122356056</v>
+        <v>0.8501300140584138</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9391388559360873</v>
+        <v>0.9378343874306397</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>207</v>
@@ -1906,19 +1906,19 @@
         <v>124527</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>114139</v>
+        <v>114420</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>133121</v>
+        <v>132395</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7119535630899413</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6525603245369597</v>
+        <v>0.654166812969332</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.761089944655202</v>
+        <v>0.7569390671481643</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>381</v>
@@ -1927,19 +1927,19 @@
         <v>267562</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>254335</v>
+        <v>254272</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>279994</v>
+        <v>279227</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8016498730532025</v>
+        <v>0.8016498730532023</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7620219671809542</v>
+        <v>0.7618319299925105</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8388974589653346</v>
+        <v>0.8365996703021403</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>9564</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5607</v>
+        <v>5362</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14746</v>
+        <v>14870</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0444653816713866</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02606929193947989</v>
+        <v>0.02492833161918544</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06855699135758901</v>
+        <v>0.06913227787568642</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>49</v>
@@ -2052,19 +2052,19 @@
         <v>28582</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>21040</v>
+        <v>21170</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>36760</v>
+        <v>36841</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09676671661059004</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07123410994562414</v>
+        <v>0.0716722868688079</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1244570267789063</v>
+        <v>0.1247312581132899</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>65</v>
@@ -2073,19 +2073,19 @@
         <v>38146</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>29405</v>
+        <v>30103</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>48173</v>
+        <v>47933</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.07472865125427189</v>
+        <v>0.07472865125427187</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05760473498923631</v>
+        <v>0.0589725132527105</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09437333636219991</v>
+        <v>0.09390307817737992</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>2518</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>613</v>
+        <v>1193</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6294</v>
+        <v>6225</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01170741096766438</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.00285218016479943</v>
+        <v>0.00554572450520737</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0292622210835213</v>
+        <v>0.02894123191216226</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>18</v>
@@ -2123,19 +2123,19 @@
         <v>11093</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>6165</v>
+        <v>6341</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>17743</v>
+        <v>18129</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.0375554077001491</v>
+        <v>0.03755540770014909</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02087131123396793</v>
+        <v>0.0214672268834382</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.06007222246195777</v>
+        <v>0.06137643231868389</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>22</v>
@@ -2144,19 +2144,19 @@
         <v>13611</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>8579</v>
+        <v>8869</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>21082</v>
+        <v>21456</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02666391053315398</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0168069207071164</v>
+        <v>0.01737404934518181</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04130131082572325</v>
+        <v>0.04203336485580522</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>5268</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2546</v>
+        <v>2606</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10177</v>
+        <v>9988</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02449116116600466</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.011834743520866</v>
+        <v>0.01211495853099177</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0473145324464699</v>
+        <v>0.04643512666328219</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>28</v>
@@ -2194,19 +2194,19 @@
         <v>17222</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>11889</v>
+        <v>11210</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>24082</v>
+        <v>23802</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.05830864864462727</v>
+        <v>0.05830864864462725</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04025333905758684</v>
+        <v>0.03795400453309272</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.08153303642095454</v>
+        <v>0.08058358932061604</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>36</v>
@@ -2215,19 +2215,19 @@
         <v>22490</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>15517</v>
+        <v>15838</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>30235</v>
+        <v>30611</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04405906973604524</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03039911830024965</v>
+        <v>0.03102669620239393</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0592310595948953</v>
+        <v>0.05996884807425152</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>7853</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4270</v>
+        <v>4427</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>13812</v>
+        <v>13175</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03651132588860349</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.019851745810666</v>
+        <v>0.02058217666350556</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06421348238379321</v>
+        <v>0.06125382999707126</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>44</v>
@@ -2265,19 +2265,19 @@
         <v>26212</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>20001</v>
+        <v>19797</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>34722</v>
+        <v>35622</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.08874442063101644</v>
+        <v>0.08874442063101641</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06771650355346476</v>
+        <v>0.06702441813385447</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1175548882992139</v>
+        <v>0.1206042228286791</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>56</v>
@@ -2286,19 +2286,19 @@
         <v>34065</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>24848</v>
+        <v>25538</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>44317</v>
+        <v>44116</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06673510945312496</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04867839067810916</v>
+        <v>0.05003018624083542</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08681801739940719</v>
+        <v>0.08642439243750098</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>189886</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>182025</v>
+        <v>181664</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>196786</v>
+        <v>196022</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.882824720306341</v>
+        <v>0.8828247203063407</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8462753886777239</v>
+        <v>0.8446006529241781</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9149046283508182</v>
+        <v>0.9113511879538254</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>385</v>
@@ -2336,19 +2336,19 @@
         <v>212257</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>198508</v>
+        <v>199454</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>223753</v>
+        <v>224067</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.7186248064136173</v>
+        <v>0.718624806413617</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6720742135012853</v>
+        <v>0.6752784365753887</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7575436152342991</v>
+        <v>0.7586081735592837</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>672</v>
@@ -2357,19 +2357,19 @@
         <v>402142</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>388095</v>
+        <v>386987</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>416778</v>
+        <v>415889</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7878132590234038</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7602946508221822</v>
+        <v>0.7581230744190037</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.816485863371058</v>
+        <v>0.8147431736307983</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>40117</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>31142</v>
+        <v>30997</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>51785</v>
+        <v>50895</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.05607121497952272</v>
+        <v>0.05607121497952273</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04352701418895177</v>
+        <v>0.04332449491274955</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07237916767266689</v>
+        <v>0.07113651747250635</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>193</v>
@@ -2482,19 +2482,19 @@
         <v>96110</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>83985</v>
+        <v>82232</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>109368</v>
+        <v>109377</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1066485130887212</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.09319428302605955</v>
+        <v>0.09124947881263253</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1213608040302786</v>
+        <v>0.1213706245410814</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>259</v>
@@ -2503,19 +2503,19 @@
         <v>136227</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>119674</v>
+        <v>121962</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>153609</v>
+        <v>154614</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.08426502548644629</v>
+        <v>0.08426502548644631</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07402596995579995</v>
+        <v>0.07544143701378893</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09501728844429935</v>
+        <v>0.09563883779534581</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>12248</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>7207</v>
+        <v>7287</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>19548</v>
+        <v>18535</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01711907627682302</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01007312448213735</v>
+        <v>0.01018441918531691</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02732208343897647</v>
+        <v>0.02590587573299586</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>59</v>
@@ -2553,19 +2553,19 @@
         <v>32748</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>24020</v>
+        <v>25302</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>42685</v>
+        <v>42816</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.03633896915922393</v>
+        <v>0.03633896915922394</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0266533883097872</v>
+        <v>0.0280761210230307</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04736536993762654</v>
+        <v>0.04751089176817322</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>77</v>
@@ -2574,19 +2574,19 @@
         <v>44996</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>35795</v>
+        <v>35750</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>56886</v>
+        <v>56155</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02783301391579763</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02214168282002666</v>
+        <v>0.02211392238476771</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03518766784012534</v>
+        <v>0.03473557686944564</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>24758</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>17355</v>
+        <v>17617</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>34741</v>
+        <v>34440</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03460490974021632</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02425664242014961</v>
+        <v>0.02462271890722197</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04855797245406063</v>
+        <v>0.04813707882948128</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>125</v>
@@ -2624,19 +2624,19 @@
         <v>71467</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>59682</v>
+        <v>59849</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>84177</v>
+        <v>86004</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.07930348157403651</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.06622586703742656</v>
+        <v>0.06641214288225732</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.09340729025369081</v>
+        <v>0.09543433085661163</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>159</v>
@@ -2645,19 +2645,19 @@
         <v>96225</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>82317</v>
+        <v>83469</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>112387</v>
+        <v>112764</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.05952168290378002</v>
+        <v>0.05952168290378004</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.05091854833758688</v>
+        <v>0.0516308196799549</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.06951877941542706</v>
+        <v>0.06975219282048215</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>30452</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>22898</v>
+        <v>22365</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>40022</v>
+        <v>39437</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04256244703338531</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03200436059970298</v>
+        <v>0.03125998725481845</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05593878663179297</v>
+        <v>0.05512133869057391</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>153</v>
@@ -2695,19 +2695,19 @@
         <v>81303</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>70181</v>
+        <v>70021</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>95532</v>
+        <v>93975</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.09021777089479396</v>
+        <v>0.09021777089479398</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.07787711458309395</v>
+        <v>0.0776995079101037</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1060076647996925</v>
+        <v>0.1042794497529699</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>201</v>
@@ -2716,19 +2716,19 @@
         <v>111754</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>96650</v>
+        <v>95488</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>128437</v>
+        <v>127573</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.06912743213191259</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.05978405526715899</v>
+        <v>0.0590658398880681</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.07944667883125571</v>
+        <v>0.07891237083774766</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>607887</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>591052</v>
+        <v>590920</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>622347</v>
+        <v>623384</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8496423519700527</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8261130136523551</v>
+        <v>0.8259283041068637</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8698528279460516</v>
+        <v>0.8713025159421206</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1173</v>
@@ -2766,19 +2766,19 @@
         <v>619555</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>599530</v>
+        <v>598183</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>641040</v>
+        <v>640793</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.6874912652832246</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6652702503495013</v>
+        <v>0.6637765383644363</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7113322631217621</v>
+        <v>0.7110582020762439</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2033</v>
@@ -2787,19 +2787,19 @@
         <v>1227442</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1200324</v>
+        <v>1202043</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1252583</v>
+        <v>1254556</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.7592528455620634</v>
+        <v>0.7592528455620635</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7424788807474891</v>
+        <v>0.7435419984301367</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7748041922890592</v>
+        <v>0.7760250475289358</v>
       </c>
     </row>
     <row r="33">
